--- a/Data/Test/dataset20/input_data.xlsx
+++ b/Data/Test/dataset20/input_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADFB23-D34E-4CAC-88B5-C6331A55CB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A9889B-0DB0-45E7-B115-0CC373302838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -245,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,10 +283,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -561,19 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="7" width="8.796875" style="1"/>
-    <col min="8" max="9" width="8.796875" style="2"/>
+    <col min="4" max="5" width="8.796875" style="1"/>
+    <col min="6" max="8" width="8.796875" style="2"/>
+    <col min="9" max="10" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,20 +597,23 @@
       <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
       <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -618,20 +629,23 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>25</v>
       </c>
       <c r="H2" s="2">
         <v>25</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -647,20 +661,23 @@
       <c r="E3" s="1">
         <v>90</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>90</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>90</v>
       </c>
       <c r="H3" s="2">
         <v>90</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -676,20 +693,23 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -705,20 +725,23 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -734,20 +757,23 @@
       <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>24</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>24</v>
       </c>
       <c r="H6" s="2">
         <v>24</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -763,20 +789,23 @@
       <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>16</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>16</v>
       </c>
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -792,20 +821,23 @@
       <c r="E8" s="1">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
         <v>20</v>
       </c>
       <c r="H8" s="2">
         <v>20</v>
       </c>
-      <c r="I8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I8" s="3">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -821,20 +853,23 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
         <v>3</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -850,20 +885,23 @@
       <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
         <v>12</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="3">
         <v>12</v>
       </c>
-      <c r="H10" s="2">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -879,20 +917,23 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -908,20 +949,23 @@
       <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
         <v>20</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
       </c>
-      <c r="I12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="3">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -937,20 +981,23 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -966,20 +1013,23 @@
       <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="1">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1">
-        <v>12</v>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
       </c>
       <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -995,20 +1045,23 @@
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>8</v>
       </c>
       <c r="H15" s="2">
         <v>8</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1024,20 +1077,23 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1053,20 +1109,23 @@
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
         <v>20</v>
       </c>
       <c r="H17" s="2">
         <v>20</v>
       </c>
-      <c r="I17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I17" s="3">
+        <v>20</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1082,20 +1141,26 @@
       <c r="E18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="H18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1111,20 +1176,23 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
         <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1140,20 +1208,23 @@
       <c r="E20" s="1">
         <v>0.9</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.9</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>0.9</v>
       </c>
       <c r="H20" s="2">
         <v>0.9</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1169,20 +1240,23 @@
       <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>100</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>100</v>
       </c>
       <c r="H21" s="2">
         <v>100</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1198,20 +1272,23 @@
       <c r="E22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>25</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>25</v>
       </c>
       <c r="H22" s="2">
         <v>25</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1227,20 +1304,23 @@
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="1">
-        <v>20</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
         <v>20</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
       </c>
-      <c r="I23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I23" s="3">
+        <v>20</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1256,20 +1336,23 @@
       <c r="E24" s="1">
         <v>60</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>60</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>60</v>
       </c>
       <c r="H24" s="2">
         <v>60</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1285,20 +1368,23 @@
       <c r="E25" s="1">
         <v>6000000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>6000000</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>6000000</v>
       </c>
       <c r="H25" s="2">
         <v>6000000</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1314,20 +1400,23 @@
       <c r="E26" s="1">
         <v>9300</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>9300</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>9300</v>
       </c>
       <c r="H26" s="2">
         <v>9300</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1343,20 +1432,23 @@
       <c r="E27" s="1">
         <v>7.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>7.5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>7.5</v>
       </c>
       <c r="H27" s="2">
         <v>7.5</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1372,20 +1464,23 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="1">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
         <v>4</v>
       </c>
       <c r="H28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="3">
+        <v>4</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1401,20 +1496,23 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
         <v>4</v>
       </c>
       <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I29" s="3">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1430,20 +1528,23 @@
       <c r="E30" s="1">
         <v>4200</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>4200</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>4200</v>
       </c>
       <c r="H30" s="2">
         <v>4200</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1459,20 +1560,23 @@
       <c r="E31" s="1">
         <v>1100</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>1100</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>1100</v>
       </c>
       <c r="H31" s="2">
         <v>1100</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1488,20 +1592,23 @@
       <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
         <v>10</v>
       </c>
       <c r="H32" s="2">
         <v>10</v>
       </c>
-      <c r="I32" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1517,20 +1624,23 @@
       <c r="E33" s="1">
         <v>11</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>11</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>11</v>
       </c>
       <c r="H33" s="2">
         <v>11</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1546,20 +1656,23 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>6</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" s="2">
         <v>6</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1575,20 +1688,23 @@
       <c r="E35" s="1">
         <v>7</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>7</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>7</v>
       </c>
       <c r="H35" s="2">
         <v>7</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1604,20 +1720,23 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="1">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
         <v>2</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1633,20 +1752,23 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
         <v>3</v>
       </c>
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1662,16 +1784,19 @@
       <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
